--- a/medicine/Enfance/Joanna_Cannan/Joanna_Cannan.xlsx
+++ b/medicine/Enfance/Joanna_Cannan/Joanna_Cannan.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Joanna Cannan, née le 27 mai 1896 à Oxford et morte le 22 avril 1961, est un écrivain britannique, auteur notamment de roman policier et de littérature d'enfance et de jeunesse.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Benjamine de Charles Cannan, secrétaire délégué des Oxford University Press, elle est née dans un milieu de lettrés. Encore toute jeune, en 1908, elle est encouragée par ses parents à publier avec ses sœurs un recueil de poésie. À la même époque, l'un de ses cousins Gilbert Cannan (en) devient un écrivain professionnel. Devenue elle-même l’épouse de H. J. Pullein-Thompson en 1918, elle en aura trois filles et un garçon qui seront tous écrivains.
 Après des études à l’université d'Oxford, elle complète sa formation à la Sorbonne, ce qui explique sa sympathie francophile.  Dans ses récits se retrouvent souvent son amour de la France et son attachement pour ses ancêtres écossais. 
@@ -548,23 +562,146 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Romans
-Série Inspecteur Guy Northeast
-They Rang Up the Police (1939)
-Death at The Dog (1940)
-Série Inspecteur Ronald Price
-Murder Included ou A Taste of Murder ou Poisonous Relations (1950) Publié en français sous le titre Elle nous empoisonne, Genève, Ditis, coll. Détective-club-Suisse no 62, 1950 ; réédition, Paris, Ditis, coll. Detective Club no 31, 1950 ; réédition, Paris, J'ai lu policier no 91, 1969 ; réédition, Paris, Librairie des Champs-Élysées, coll. Le Masque. Les Reines du crime no 1820, 1986
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Série Inspecteur Guy Northeast</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>They Rang Up the Police (1939)
+Death at The Dog (1940)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Joanna_Cannan</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Joanna_Cannan</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Série Inspecteur Ronald Price</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Murder Included ou A Taste of Murder ou Poisonous Relations (1950) Publié en français sous le titre Elle nous empoisonne, Genève, Ditis, coll. Détective-club-Suisse no 62, 1950 ; réédition, Paris, Ditis, coll. Detective Club no 31, 1950 ; réédition, Paris, J'ai lu policier no 91, 1969 ; réédition, Paris, Librairie des Champs-Élysées, coll. Le Masque. Les Reines du crime no 1820, 1986
 Body in the Beck (1952)
 Long Shadows (1955)
 And Be a Villain (1958)
-All is Discovered (1962)
-Autres romans policiers
-The Simple Pass On ou Orphan of Mars (1929)
+All is Discovered (1962)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Joanna_Cannan</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Joanna_Cannan</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Autres romans policiers</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>The Simple Pass On ou Orphan of Mars (1929)
 No Walls of Jasper (1930)
 Under Proof (1934)
 A Hand to Burn (1936)
-Frightened Angels (1936)
-Autres romans non-policiers
+Frightened Angels (1936)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Joanna_Cannan</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Joanna_Cannan</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Autres romans non-policiers</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 The Misty Valley (1922)
 Wild Berry Wine (1925)
 The Lady of the Heights (1926)
@@ -581,8 +718,47 @@
 Little I Understood (1948)
 And All I Learned (1951)
 People to Be Found (1956)
-Série Pony de littérature d’enfance et de jeunesse
-A Pony for Jean (1936)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Joanna_Cannan</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Joanna_Cannan</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Série Pony de littérature d’enfance et de jeunesse</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>A Pony for Jean (1936)
 We Met Our Cousins (1937)
 Another Pony for Jean (1938)
 London Pride (1939)
@@ -590,40 +766,110 @@
 They Bought Her a Pony (1944)
 Hamish: The Story of a Shetland Pony (1944)
 I Wrote a Pony Book (1950)
-Gaze at the Moon (1957)
-Autres publications
-The Lady of the Valley (1939), monographie historique
-Oxfordshire (1945), monographie touristique
-Poésie
-The Tripled Crown (1908), en collaboration avec ses sœurs.</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Joanna_Cannan</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Joanna_Cannan</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+Gaze at the Moon (1957)</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Joanna_Cannan</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Joanna_Cannan</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Autres publications</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>The Lady of the Valley (1939), monographie historique
+Oxfordshire (1945), monographie touristique</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Joanna_Cannan</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Joanna_Cannan</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Poésie</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>The Tripled Crown (1908), en collaboration avec ses sœurs.</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Joanna_Cannan</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Joanna_Cannan</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>Sources</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t>Jacques Baudou et Jean-Jacques Schleret, Les Métamorphoses de la chouette : Détective-club, Paris, Futuropolis, 1986 (ISBN 978-2-737-65488-6), p. 46-48.
 Claude Mesplède (dir.), Dictionnaire des littératures policières, vol. 1 : A - I, Nantes, Joseph K, coll. « Temps noir », 2007, 1054 p. (ISBN 978-2-910-68644-4, OCLC 315873251), p. 353-354.
